--- a/biology/Zoologie/Brookesia/Brookesia.xlsx
+++ b/biology/Zoologie/Brookesia/Brookesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brookesia est un genre de sauriens de la famille des Chamaeleonidae[1]. Les espèces de ce genre sont appelées Brookésies
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brookesia est un genre de sauriens de la famille des Chamaeleonidae. Les espèces de ce genre sont appelées Brookésies
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 31 espèces de ce genre sont endémiques de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 31 espèces de ce genre sont endémiques de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces  caméléons sont des animaux difficiles à observer car ils ont un fort mimétisme avec leur environnement. Ils sont principalement terrestres alors que la plupart des autres caméléons sont arboricoles. Ces petits caméléons sont également de faible taille, de 11 cm avec la queue pour Brookesia perarmata à moins de 3 cm pour Brookesia micra[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces  caméléons sont des animaux difficiles à observer car ils ont un fort mimétisme avec leur environnement. Ils sont principalement terrestres alors que la plupart des autres caméléons sont arboricoles. Ces petits caméléons sont également de faible taille, de 11 cm avec la queue pour Brookesia perarmata à moins de 3 cm pour Brookesia micra.
 Ils ont des livrées tachées de brun et de gris, avec parfois des excroissances osseuses ou de peaux qui masquent leur forme. Pour peu qu'ils restent immobiles le mimétisme avec le support, branches, feuilles mortes au sol ou mousses sur les troncs est quasi parfait.
 Leur queue est relativement courte ainsi que non préhensile, contrairement aux autres caméléons.
 Territoriaux et solitaires, ces caméléons montrent un fort taux d'endémisme et les espèces ont parfois des aires de répartition très limitées.
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (5 janvier 2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (5 janvier 2022) :
 Brookesia antakarana Raxworthy &amp; Nussbaum, 1995
 Brookesia bekolosy Raxworthy &amp; Nussbaum, 1995
 Brookesia betschi Brygoo et al., 1974
@@ -603,7 +621,7 @@
 Brookesia ramanantsoai Brygoo &amp; Domergue, 1975
 Brookesia stumpffi Boettger, 1894
 Brookesia superciliaris (Kuhl, 1820)
-Brookesia tedi Scherz et al., 2019[4]
+Brookesia tedi Scherz et al., 2019
 Brookesia therezieni Brygoo &amp; Domergue, 1970
 Brookesia thieli Brygoo &amp; Domergue, 1969
 Brookesia tristis Glaw et al., 2012
@@ -637,9 +655,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur du naturaliste anglais, Joshua Brookes (1761-1833)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur du naturaliste anglais, Joshua Brookes (1761-1833).
 </t>
         </is>
       </c>
@@ -668,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1865 "1864" : Revision of the genera and species of Chamaeleonidae, with the description of some new species. Proceedings of the Zoological Society of London, vol. 1864, p. 465-479 (texte intégral).</t>
         </is>
